--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_8_4.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_2</t>
+          <t>model_8_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999962996819776</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990390850908883</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999986533061643</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999986476263707</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999917266341939</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G2" t="n">
-        <v>3.454084448789041e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008969718883660292</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I2" t="n">
-        <v>1.154024504070908e-06</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>1.672899951117376e-05</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>8.941512007622333e-06</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001709010630938462</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001858516733524087</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000088807632538</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001937637638530217</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P2" t="n">
-        <v>75.15190625795225</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q2" t="n">
-        <v>105.6238018796573</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_1</t>
+          <t>model_8_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999973672918315</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990368683500045</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999988030142997</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999914840339337</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999946518720128</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G3" t="n">
-        <v>2.45751751268418e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008990411186775109</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I3" t="n">
-        <v>1.025734872013293e-06</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>1.053433674500051e-05</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>5.780035808506902e-06</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001466162825091959</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001567647126327918</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000063184996043</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001634385109972615</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P3" t="n">
-        <v>75.83271771746216</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.3046133391672</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_0</t>
+          <t>model_8_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999980672926067</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990356949724813</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999987843894173</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999954088718822</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999968906253512</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G4" t="n">
-        <v>1.804097515618175e-06</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009001364150899831</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I4" t="n">
-        <v>1.041695122307249e-06</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>5.679272234694818e-06</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>3.360483678501034e-06</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001219055955587678</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001343166972352349</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00004638497744</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001400348371104325</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P4" t="n">
-        <v>76.4509001651281</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.9227957868331</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_3</t>
+          <t>model_8_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999827288656764</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990160821151713</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999945568936469</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999924606974876</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999546955715517</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G5" t="n">
-        <v>1.612184577594282e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009184441564839348</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I5" t="n">
-        <v>4.664369839197069e-06</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J5" t="n">
-        <v>9.326193983062043e-05</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>4.896315483490875e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002858085891127893</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004015201835019358</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000414507223766</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004186137289749764</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P5" t="n">
-        <v>72.07067065042193</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.5425662721269</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_4</t>
+          <t>model_8_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999797432809019</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990101413103697</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999925662366853</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999117659387734</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999465576081892</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G6" t="n">
-        <v>1.890875811093212e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009239896369951481</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I6" t="n">
-        <v>6.370226695571425e-06</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001091464322540335</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>5.775832947480246e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003060608264040298</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004348420185645831</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000486161258355</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004533541435419484</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P6" t="n">
-        <v>71.75177070223768</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.2236663239427</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_5</t>
+          <t>model_8_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999767510084776</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990040759444169</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999903030854664</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9998990434926304</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999383794823218</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G7" t="n">
-        <v>2.170191307341235e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009296513898732566</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I7" t="n">
-        <v>8.309592491829199e-06</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001248842276898368</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6596910090833e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003239191514318878</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004658531214171732</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000557975796537</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004856854532448059</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P7" t="n">
-        <v>71.47622028247729</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.9481159041823</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_6</t>
+          <t>model_8_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999738835065335</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C8" t="n">
-        <v>0.998998339709956</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999878976411481</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998869870768237</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999305261055682</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G8" t="n">
-        <v>2.437860026941577e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009350059129509128</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I8" t="n">
-        <v>1.037089374158423e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001397981368173126</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>7.50845152794484e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003393377848453014</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004937469014527157</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000626795843196</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005147667292445463</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P8" t="n">
-        <v>71.24360969725356</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.7155053189586</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_7</t>
+          <t>model_8_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999710084705024</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989926829776796</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999853393060634</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998750012172158</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999226524938661</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G9" t="n">
-        <v>2.706232020494664e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009402862242290551</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I9" t="n">
-        <v>1.256321192067094e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000154624767208183</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>8.359398956442697e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003534400286335487</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005202145730844787</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000695796707944</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005423611844533069</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P9" t="n">
-        <v>71.03473639184151</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q9" t="n">
-        <v>101.5066320135465</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_8</t>
+          <t>model_8_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.999968310708195</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989874190032012</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999827566264607</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998638735675316</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999152603739329</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G10" t="n">
-        <v>2.958056290076115e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009451999133429222</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I10" t="n">
-        <v>1.477639168628524e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001683897831840952</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>9.158308743519023e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003656164529032338</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005438801605203223</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000760543003319</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005670342649408138</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P10" t="n">
-        <v>70.85678614217424</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q10" t="n">
-        <v>101.3286817638793</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_9</t>
+          <t>model_8_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999965758839076</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989824950729663</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999980198659468</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998534272527517</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999082679709935</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G11" t="n">
-        <v>3.19626207092703e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009497961860815737</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I11" t="n">
-        <v>1.696839443565754e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001813119809451481</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>9.914018769040284e-05</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003763317576578859</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005653549390362687</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000821787862176</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005894232692371038</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P11" t="n">
-        <v>70.70188688152743</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.1737825032324</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_10</t>
+          <t>model_8_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999633480907102</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989779490020914</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999776842476644</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998436334864519</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999016662810501</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G12" t="n">
-        <v>3.421294848918467e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009540397436938813</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I12" t="n">
-        <v>1.912307336690045e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>0.000193426969591111</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001062750214790057</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.000385854397863257</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005849183574584121</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000879645822955</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006098195428833371</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P12" t="n">
-        <v>70.56581274951165</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q12" t="n">
-        <v>101.0377083712167</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_11</t>
+          <t>model_8_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999611280520467</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9989737685386696</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999975259176915</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999834690774726</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998955870584971</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G13" t="n">
-        <v>3.628525713310667e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009579420227970246</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12011931257038e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002044891950627263</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001128451940942151</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003940248399572382</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006023724523341573</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000932926750878</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006280166947129001</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P13" t="n">
-        <v>70.44819807754865</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q13" t="n">
-        <v>100.9200936992537</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999590415375161</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989698539930868</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999729348759694</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998263285648858</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998898800002299</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G14" t="n">
-        <v>3.823292685995952e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009615960792698024</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I14" t="n">
-        <v>2.319296005531277e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002148333337901168</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001190131469227148</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004014096195741543</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006183278002803975</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000983003099613</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006446512948533352</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P14" t="n">
-        <v>70.34362690788171</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q14" t="n">
-        <v>100.8155225295867</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_13</t>
+          <t>model_8_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999571316830155</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9989663161930771</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999707342971815</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998187280057699</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998846578749715</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G15" t="n">
-        <v>4.001569220344738e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009648984602873951</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I15" t="n">
-        <v>2.507870555809438e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002242353028155537</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000124657004186824</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004077875959097466</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006325795776299404</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001028839607629</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O15" t="n">
-        <v>0.006595097998698942</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P15" t="n">
-        <v>70.25247775139135</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.7243733730964</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_14</t>
+          <t>model_8_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999553682214092</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989631053810851</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999686826934301</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998117316655185</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998798405978588</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G16" t="n">
-        <v>4.166180620586315e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009678956123436207</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I16" t="n">
-        <v>2.683678964458048e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002328898469525255</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.000129863318298553</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004134779167238207</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006454595743023969</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00107116268618</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006729381246659661</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P16" t="n">
-        <v>70.17185153438726</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q16" t="n">
-        <v>100.6437471560923</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_15</t>
+          <t>model_8_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999537336453594</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989601575244769</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999667314942713</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998052877060106</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998753792468554</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G17" t="n">
-        <v>4.318761119867246e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009706473070914826</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I17" t="n">
-        <v>2.850883386280999e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002408610904848505</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001346849621738303</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004185889677435448</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006571728174435736</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001110392511373</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006851500248174187</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P17" t="n">
-        <v>70.09991376330268</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q17" t="n">
-        <v>100.5718093850077</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_16</t>
+          <t>model_8_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999522379800854</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989574580915258</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999649203296319</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997994136359094</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998712995532055</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G18" t="n">
-        <v>4.458374907993613e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>0.000973167109259881</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I18" t="n">
-        <v>3.00608780761588e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002481273750176976</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001390941265469282</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004230472351246671</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006677106340319595</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001146288477951</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006961364580742595</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P18" t="n">
-        <v>70.03628227148459</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.5081778931896</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_17</t>
+          <t>model_8_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999508456286064</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C19" t="n">
-        <v>0.998954988942953</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999632249712801</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997939587205638</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998675056480362</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G19" t="n">
-        <v>4.588344806838123e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009754719510695023</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I19" t="n">
-        <v>3.151368422204199e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002548751608493555</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001431944225356988</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004271599550686303</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006773732211150751</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001179704913447</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007062104014938161</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P19" t="n">
-        <v>69.97881222892933</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.4507078506343</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_18</t>
+          <t>model_8_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999496202790205</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989527942304174</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999616900585991</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999789189213053</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998641676019978</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G20" t="n">
-        <v>4.702725812026974e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009775206188847485</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I20" t="n">
-        <v>3.282899940250753e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J20" t="n">
-        <v>0.000260775090209691</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001468020448060993</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000430563810786942</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006857642314984775</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001209113303509</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00714958634561026</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P20" t="n">
-        <v>69.92956632872057</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q20" t="n">
-        <v>100.4014619504256</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_19</t>
+          <t>model_8_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999484846501305</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989508410899351</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999602736779686</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997847707490907</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998610774458484</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G21" t="n">
-        <v>4.808731784061939e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009793437897919234</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I21" t="n">
-        <v>3.404274072330351e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002662407751257737</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001501417579245386</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004337317230557449</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006934501989373093</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N21" t="n">
-        <v>1.001236368396867</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007229718095458749</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P21" t="n">
-        <v>69.88498415594955</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.3568797776546</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_20</t>
+          <t>model_8_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999474531314353</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989490180910003</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999589535635007</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997807833130987</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998582721264113</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G22" t="n">
-        <v>4.905019526421909e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009810454792771334</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I22" t="n">
-        <v>3.517398852719497e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002711732740532223</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001531736312902086</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004365361195310637</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007003584458276996</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001261124845553</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O22" t="n">
-        <v>0.007301741548084316</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P22" t="n">
-        <v>69.84533278207786</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.3172284037829</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_21</t>
+          <t>model_8_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999465280278018</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989473788087904</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999577495392323</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997772237516376</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998557576982328</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G23" t="n">
-        <v>4.991373889870801e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009825756772639403</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I23" t="n">
-        <v>3.620575497061057e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002755764878288872</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001558911213997489</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004389697250452412</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007064965597843206</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001283327332756</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007365735809838334</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P23" t="n">
-        <v>69.81042852894271</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q23" t="n">
-        <v>100.2823241506477</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_22</t>
+          <t>model_8_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999456813341621</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989458958882869</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999566481787263</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997739678740153</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998534577655872</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G24" t="n">
-        <v>5.070409024586577e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009839599184612888</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I24" t="n">
-        <v>3.714954559179886e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002796040416033382</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001583767935975685</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004411661112368212</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00712068046227787</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001303647980111</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007423822571397651</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P24" t="n">
-        <v>69.77900795032073</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.2509035720257</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_8_4_23</t>
+          <t>model_8_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999449144198447</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989445869075205</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999556473010491</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997710229496275</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998513756240325</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G25" t="n">
-        <v>5.141997109747752e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009851817945490825</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I25" t="n">
-        <v>3.800722930175109e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002832469430602008</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000160627086180976</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004431032232996074</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00717077200149869</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001322053923728</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007476046611146882</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75096783642772</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q25" t="n">
-        <v>100.2228634581327</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999442108685096</v>
+        <v>0.9999989698596451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989433734991411</v>
+        <v>0.9990244665669379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999547274633028</v>
+        <v>0.9999997721416124</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997683245615123</v>
+        <v>0.9999994052265209</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998494667004035</v>
+        <v>0.9999996668537887</v>
       </c>
       <c r="G26" t="n">
-        <v>5.207670538644488e-05</v>
+        <v>9.615908033740045e-07</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009863144580088315</v>
+        <v>0.0009106176387947784</v>
       </c>
       <c r="I26" t="n">
-        <v>3.879546733394291e-05</v>
+        <v>3.575332617513795e-08</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002865848766371424</v>
+        <v>7.683429897507375e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001626901719855427</v>
+        <v>4.020481579629377e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000444882611404225</v>
+        <v>5.130350677945762e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007216419152629986</v>
+        <v>0.0009806073645318011</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00133893915577</v>
+        <v>1.000024723368518</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007523637056004467</v>
+        <v>0.001022353850177004</v>
       </c>
       <c r="P26" t="n">
-        <v>69.72558564538787</v>
+        <v>77.70935367418031</v>
       </c>
       <c r="Q26" t="n">
-        <v>100.1974812670929</v>
+        <v>108.1812492958853</v>
       </c>
     </row>
   </sheetData>
